--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="146">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -55,325 +55,403 @@
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>working</t>
   </si>
   <si>
     <t>corona</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>market</t>
+    <t>see</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>masks</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
   <si>
     <t>uk</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>shelves</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>workers</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>workers</t>
+    <t>go</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>supply</t>
   </si>
   <si>
+    <t>people</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>food</t>
   </si>
   <si>
     <t>going</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>go</t>
   </si>
 </sst>
 </file>
@@ -731,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q108"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,10 +817,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -800,13 +878,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6111111111111112</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -818,31 +896,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9310344827586207</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -850,49 +928,49 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5172413793103449</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>14</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.8803418803418803</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L4">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="M4">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="N4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -900,13 +978,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5171232876712328</v>
+        <v>0.541095890410959</v>
       </c>
       <c r="C5">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D5">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -918,31 +996,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.8348623853211009</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="L5">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="M5">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -950,13 +1028,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3466666666666667</v>
+        <v>0.32</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -968,31 +1046,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.828125</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="L6">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="M6">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1000,49 +1078,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2446601941747573</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="C7">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8125</v>
+        <v>0.8359375</v>
       </c>
       <c r="L7">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="M7">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1050,239 +1128,167 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.09090909090909091</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>132</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L8">
+        <v>67</v>
+      </c>
+      <c r="M8">
+        <v>67</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="L9">
+        <v>26</v>
+      </c>
+      <c r="M9">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L10">
+        <v>49</v>
+      </c>
+      <c r="M10">
+        <v>49</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>14</v>
       </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
-      <c r="E8">
-        <v>0.93</v>
-      </c>
-      <c r="F8">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>140</v>
-      </c>
-      <c r="J8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K8">
-        <v>0.7579617834394905</v>
-      </c>
-      <c r="L8">
-        <v>119</v>
-      </c>
-      <c r="M8">
-        <v>122</v>
-      </c>
-      <c r="N8">
-        <v>0.98</v>
-      </c>
-      <c r="O8">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.01237911025145068</v>
-      </c>
-      <c r="C9">
-        <v>32</v>
-      </c>
-      <c r="D9">
-        <v>554</v>
-      </c>
-      <c r="E9">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2553</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.7555555555555555</v>
-      </c>
-      <c r="L9">
-        <v>34</v>
-      </c>
-      <c r="M9">
-        <v>35</v>
-      </c>
-      <c r="N9">
-        <v>0.97</v>
-      </c>
-      <c r="O9">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.01181767023072594</v>
-      </c>
-      <c r="C10">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>387</v>
-      </c>
-      <c r="E10">
-        <v>0.95</v>
-      </c>
-      <c r="F10">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1756</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.7021276595744681</v>
-      </c>
-      <c r="L10">
-        <v>99</v>
-      </c>
-      <c r="M10">
-        <v>100</v>
-      </c>
-      <c r="N10">
-        <v>0.99</v>
-      </c>
-      <c r="O10">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.005689900426742532</v>
-      </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>405</v>
-      </c>
-      <c r="E11">
-        <v>0.96</v>
-      </c>
-      <c r="F11">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>2796</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.648068669527897</v>
+        <v>0.76875</v>
       </c>
       <c r="L11">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="M11">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="N11">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>0.75</v>
+      </c>
+      <c r="L12">
         <v>27</v>
       </c>
-      <c r="K12">
-        <v>0.6444444444444445</v>
-      </c>
-      <c r="L12">
-        <v>58</v>
-      </c>
       <c r="M12">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.6388888888888888</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1294,73 +1300,73 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6039603960396039</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L14">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="N14">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.5705521472392638</v>
+        <v>0.6903765690376569</v>
       </c>
       <c r="L15">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="M15">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="N15">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>140</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.5531914893617021</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,73 +1378,73 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.5517241379310345</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.53125</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18">
         <v>18</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.5238095238095238</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1450,47 +1456,47 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.5236842105263158</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L20">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="M20">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>181</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.52</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1502,99 +1508,99 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5087719298245614</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M22">
         <v>30</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.4925373134328358</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M23">
+        <v>58</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>36</v>
-      </c>
-      <c r="N23">
-        <v>0.92</v>
-      </c>
-      <c r="O23">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.4809688581314879</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L24">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="N24">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.4509803921568628</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1606,73 +1612,73 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4042553191489361</v>
+        <v>0.58</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M27">
         <v>15</v>
       </c>
       <c r="N27">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.3714285714285714</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1684,21 +1690,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.3488372093023256</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1710,21 +1716,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>28</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.3230769230769231</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1736,47 +1742,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L31">
         <v>45</v>
       </c>
-      <c r="K31">
-        <v>0.3222748815165877</v>
-      </c>
-      <c r="L31">
-        <v>68</v>
-      </c>
       <c r="M31">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>143</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.3191489361702128</v>
+        <v>0.4960835509138381</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1788,47 +1794,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.3125</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.3050847457627119</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1840,47 +1846,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.2905569007263922</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L35">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>293</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.2888888888888889</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1892,47 +1898,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.2857142857142857</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N37">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.28125</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1944,47 +1950,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.2727272727272727</v>
+        <v>0.390625</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>0.2682926829268293</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1996,99 +2002,99 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>0.2645161290322581</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L41">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N41">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>114</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K42">
-        <v>0.2638888888888889</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>0.2597402597402597</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>0.2376237623762376</v>
+        <v>0.3302325581395349</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2100,73 +2106,73 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>77</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K45">
-        <v>0.2321428571428572</v>
+        <v>0.3270440251572327</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>43</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K46">
-        <v>0.2236024844720497</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="L46">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>125</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K47">
-        <v>0.2203389830508475</v>
+        <v>0.3133971291866029</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2178,229 +2184,229 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>46</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K48">
-        <v>0.2164948453608248</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K49">
-        <v>0.2153846153846154</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="L49">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K50">
-        <v>0.2132352941176471</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="L50">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N50">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>107</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K51">
-        <v>0.2127139364303179</v>
+        <v>0.2898550724637681</v>
       </c>
       <c r="L51">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="N51">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>322</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K52">
-        <v>0.2088607594936709</v>
+        <v>0.2893081761006289</v>
       </c>
       <c r="L52">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="M52">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K53">
-        <v>0.2061068702290076</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M53">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N53">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O53">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K54">
-        <v>0.2</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="L54">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N54">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K55">
-        <v>0.1971830985915493</v>
+        <v>0.2641509433962264</v>
       </c>
       <c r="L55">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="N55">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>171</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K56">
-        <v>0.191304347826087</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2412,73 +2418,73 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K57">
-        <v>0.1908396946564886</v>
+        <v>0.25</v>
       </c>
       <c r="L57">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M57">
         <v>28</v>
       </c>
       <c r="N57">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K58">
-        <v>0.1878787878787879</v>
+        <v>0.25</v>
       </c>
       <c r="L58">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M58">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K59">
-        <v>0.1868131868131868</v>
+        <v>0.25</v>
       </c>
       <c r="L59">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M59">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2490,21 +2496,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K60">
-        <v>0.1851851851851852</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="L60">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2516,21 +2522,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>396</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K61">
-        <v>0.1842105263157895</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L61">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M61">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2542,21 +2548,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K62">
-        <v>0.1826086956521739</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L62">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M62">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2568,47 +2574,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>188</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K63">
-        <v>0.1818181818181818</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="L63">
         <v>14</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N63">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K64">
-        <v>0.1794871794871795</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L64">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="M64">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2620,47 +2626,47 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>64</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K65">
-        <v>0.1780821917808219</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N65">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>120</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K66">
-        <v>0.1764705882352941</v>
+        <v>0.2279069767441861</v>
       </c>
       <c r="L66">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M66">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2672,189 +2678,189 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>98</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K67">
-        <v>0.176</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="L67">
         <v>22</v>
       </c>
       <c r="M67">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N67">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K68">
-        <v>0.1745495495495495</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="L68">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="N68">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>733</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K69">
-        <v>0.1734104046242775</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L69">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="M69">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="N69">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>286</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K70">
-        <v>0.1727272727272727</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M70">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N70">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="K71">
-        <v>0.1724787935909519</v>
+        <v>0.2192982456140351</v>
       </c>
       <c r="L71">
-        <v>366</v>
+        <v>25</v>
       </c>
       <c r="M71">
-        <v>387</v>
+        <v>26</v>
       </c>
       <c r="N71">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O71">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1756</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K72">
-        <v>0.1708074534161491</v>
+        <v>0.2183406113537118</v>
       </c>
       <c r="L72">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M72">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N72">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="O72">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>267</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K73">
-        <v>0.1697560975609756</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="L73">
-        <v>522</v>
+        <v>22</v>
       </c>
       <c r="M73">
-        <v>554</v>
+        <v>22</v>
       </c>
       <c r="N73">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>2553</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2862,25 +2868,25 @@
         <v>86</v>
       </c>
       <c r="K74">
-        <v>0.1693989071038251</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="L74">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M74">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N74">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>152</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2888,13 +2894,13 @@
         <v>87</v>
       </c>
       <c r="K75">
-        <v>0.1653631284916201</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="L75">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="M75">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="N75">
         <v>0.96</v>
@@ -2906,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>747</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2914,25 +2920,25 @@
         <v>88</v>
       </c>
       <c r="K76">
-        <v>0.161993769470405</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="L76">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="M76">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="N76">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>538</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2940,25 +2946,25 @@
         <v>89</v>
       </c>
       <c r="K77">
-        <v>0.1563517915309446</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="L77">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="M77">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="N77">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>259</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2966,25 +2972,25 @@
         <v>90</v>
       </c>
       <c r="K78">
-        <v>0.1538461538461539</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L78">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M78">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N78">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>198</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2992,13 +2998,13 @@
         <v>91</v>
       </c>
       <c r="K79">
-        <v>0.1538461538461539</v>
+        <v>0.2137404580152672</v>
       </c>
       <c r="L79">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M79">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3010,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3018,25 +3024,25 @@
         <v>92</v>
       </c>
       <c r="K80">
-        <v>0.1517960602549247</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="L80">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="M80">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="N80">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>732</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3044,13 +3050,13 @@
         <v>93</v>
       </c>
       <c r="K81">
-        <v>0.1385767790262172</v>
+        <v>0.2116788321167883</v>
       </c>
       <c r="L81">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M81">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3062,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>230</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3070,25 +3076,25 @@
         <v>94</v>
       </c>
       <c r="K82">
-        <v>0.1352313167259787</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="L82">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="M82">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="N82">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>486</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3096,13 +3102,13 @@
         <v>95</v>
       </c>
       <c r="K83">
-        <v>0.1327433628318584</v>
+        <v>0.205761316872428</v>
       </c>
       <c r="L83">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="M83">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3114,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>98</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3122,13 +3128,13 @@
         <v>96</v>
       </c>
       <c r="K84">
-        <v>0.1317829457364341</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="L84">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M84">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3140,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>112</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3148,25 +3154,25 @@
         <v>97</v>
       </c>
       <c r="K85">
-        <v>0.1308411214953271</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L85">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M85">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N85">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3174,13 +3180,13 @@
         <v>98</v>
       </c>
       <c r="K86">
-        <v>0.1290322580645161</v>
+        <v>0.1957186544342508</v>
       </c>
       <c r="L86">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="M86">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3192,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>108</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3200,25 +3206,25 @@
         <v>99</v>
       </c>
       <c r="K87">
-        <v>0.1288343558282209</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="L87">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M87">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N87">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>142</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3226,65 +3232,65 @@
         <v>100</v>
       </c>
       <c r="K88">
-        <v>0.1262135922330097</v>
+        <v>0.1919770773638969</v>
       </c>
       <c r="L88">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M88">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="N88">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>90</v>
+        <v>282</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="K89">
-        <v>0.1221350078492936</v>
+        <v>0.1897891231964484</v>
       </c>
       <c r="L89">
-        <v>389</v>
+        <v>171</v>
       </c>
       <c r="M89">
-        <v>405</v>
+        <v>171</v>
       </c>
       <c r="N89">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>2796</v>
+        <v>730</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K90">
-        <v>0.1209677419354839</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="L90">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M90">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3296,21 +3302,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>109</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K91">
-        <v>0.1206896551724138</v>
+        <v>0.1848739495798319</v>
       </c>
       <c r="L91">
-        <v>14</v>
+        <v>396</v>
       </c>
       <c r="M91">
-        <v>14</v>
+        <v>397</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3319,24 +3325,24 @@
         <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>102</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K92">
-        <v>0.1162790697674419</v>
+        <v>0.1845637583892618</v>
       </c>
       <c r="L92">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="M92">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3348,47 +3354,47 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>152</v>
+        <v>729</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K93">
-        <v>0.1094890510948905</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L93">
         <v>15</v>
       </c>
       <c r="M93">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N93">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>122</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K94">
-        <v>0.108695652173913</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L94">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M94">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3400,21 +3406,21 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>123</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K95">
-        <v>0.107843137254902</v>
+        <v>0.1768707482993197</v>
       </c>
       <c r="L95">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M95">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3426,21 +3432,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>273</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K96">
-        <v>0.1015625</v>
+        <v>0.175788795878944</v>
       </c>
       <c r="L96">
-        <v>13</v>
+        <v>546</v>
       </c>
       <c r="M96">
-        <v>13</v>
+        <v>547</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3449,102 +3455,102 @@
         <v>0</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <v>115</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K97">
-        <v>0.09558823529411764</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="L97">
         <v>13</v>
       </c>
       <c r="M97">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N97">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>123</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K98">
-        <v>0.08849557522123894</v>
+        <v>0.1756548536209553</v>
       </c>
       <c r="L98">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="M98">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="N98">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O98">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>206</v>
+        <v>535</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K99">
-        <v>0.0859375</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="L99">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="M99">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="N99">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>1053</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K100">
-        <v>0.08</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="L100">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M100">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3556,125 +3562,125 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>276</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K101">
-        <v>0.07647058823529412</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="L101">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M101">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="N101">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>157</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K102">
-        <v>0.07623318385650224</v>
+        <v>0.168141592920354</v>
       </c>
       <c r="L102">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M102">
         <v>19</v>
       </c>
       <c r="N102">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>206</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K103">
-        <v>0.07027027027027027</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="L103">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M103">
         <v>14</v>
       </c>
       <c r="N103">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>172</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K104">
-        <v>0.0683453237410072</v>
+        <v>0.1594202898550725</v>
       </c>
       <c r="L104">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M104">
         <v>22</v>
       </c>
       <c r="N104">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>259</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K105">
-        <v>0.06521739130434782</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="L105">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="M105">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3686,85 +3692,735 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>215</v>
+        <v>477</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K106">
-        <v>0.06505576208178439</v>
+        <v>0.1563517915309446</v>
       </c>
       <c r="L106">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M106">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N106">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="O106">
-        <v>0.17</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>503</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K107">
-        <v>0.06276150627615062</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="L107">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M107">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="N107">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O107">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>896</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K108">
-        <v>0.05292479108635097</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="L108">
+        <v>25</v>
+      </c>
+      <c r="M108">
+        <v>25</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="10:17">
+      <c r="J109" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K109">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="L109">
+        <v>16</v>
+      </c>
+      <c r="M109">
+        <v>16</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="10:17">
+      <c r="J110" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K110">
+        <v>0.1443298969072165</v>
+      </c>
+      <c r="L110">
+        <v>14</v>
+      </c>
+      <c r="M110">
+        <v>14</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="10:17">
+      <c r="J111" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K111">
+        <v>0.1430219146482122</v>
+      </c>
+      <c r="L111">
+        <v>124</v>
+      </c>
+      <c r="M111">
+        <v>124</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="112" spans="10:17">
+      <c r="J112" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K112">
+        <v>0.1386861313868613</v>
+      </c>
+      <c r="L112">
         <v>19</v>
       </c>
-      <c r="M108">
+      <c r="M112">
+        <v>19</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="10:17">
+      <c r="J113" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K113">
+        <v>0.1328125</v>
+      </c>
+      <c r="L113">
+        <v>17</v>
+      </c>
+      <c r="M113">
+        <v>17</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="10:17">
+      <c r="J114" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K114">
+        <v>0.1327433628318584</v>
+      </c>
+      <c r="L114">
+        <v>15</v>
+      </c>
+      <c r="M114">
+        <v>15</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K115">
+        <v>0.1291836096340319</v>
+      </c>
+      <c r="L115">
+        <v>413</v>
+      </c>
+      <c r="M115">
+        <v>417</v>
+      </c>
+      <c r="N115">
+        <v>0.99</v>
+      </c>
+      <c r="O115">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P115" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K116">
+        <v>0.1219512195121951</v>
+      </c>
+      <c r="L116">
         <v>20</v>
       </c>
-      <c r="N108">
-        <v>0.95</v>
-      </c>
-      <c r="O108">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P108" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q108">
-        <v>340</v>
+      <c r="M116">
+        <v>20</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K117">
+        <v>0.1209677419354839</v>
+      </c>
+      <c r="L117">
+        <v>15</v>
+      </c>
+      <c r="M117">
+        <v>15</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="10:17">
+      <c r="J118" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K118">
+        <v>0.1203703703703704</v>
+      </c>
+      <c r="L118">
+        <v>13</v>
+      </c>
+      <c r="M118">
+        <v>14</v>
+      </c>
+      <c r="N118">
+        <v>0.93</v>
+      </c>
+      <c r="O118">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P118" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="10:17">
+      <c r="J119" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K119">
+        <v>0.119724375538329</v>
+      </c>
+      <c r="L119">
+        <v>139</v>
+      </c>
+      <c r="M119">
+        <v>139</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="120" spans="10:17">
+      <c r="J120" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K120">
+        <v>0.1192660550458716</v>
+      </c>
+      <c r="L120">
+        <v>13</v>
+      </c>
+      <c r="M120">
+        <v>13</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="10:17">
+      <c r="J121" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K121">
+        <v>0.1101321585903084</v>
+      </c>
+      <c r="L121">
+        <v>25</v>
+      </c>
+      <c r="M121">
+        <v>25</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="122" spans="10:17">
+      <c r="J122" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K122">
+        <v>0.108695652173913</v>
+      </c>
+      <c r="L122">
+        <v>15</v>
+      </c>
+      <c r="M122">
+        <v>15</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="10:17">
+      <c r="J123" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K123">
+        <v>0.108433734939759</v>
+      </c>
+      <c r="L123">
+        <v>18</v>
+      </c>
+      <c r="M123">
+        <v>18</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="10:17">
+      <c r="J124" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K124">
+        <v>0.1046511627906977</v>
+      </c>
+      <c r="L124">
+        <v>18</v>
+      </c>
+      <c r="M124">
+        <v>18</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="10:17">
+      <c r="J125" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K125">
+        <v>0.1</v>
+      </c>
+      <c r="L125">
+        <v>30</v>
+      </c>
+      <c r="M125">
+        <v>30</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="126" spans="10:17">
+      <c r="J126" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K126">
+        <v>0.09477124183006536</v>
+      </c>
+      <c r="L126">
+        <v>29</v>
+      </c>
+      <c r="M126">
+        <v>29</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="127" spans="10:17">
+      <c r="J127" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K127">
+        <v>0.09444444444444444</v>
+      </c>
+      <c r="L127">
+        <v>34</v>
+      </c>
+      <c r="M127">
+        <v>34</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="10:17">
+      <c r="J128" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K128">
+        <v>0.08896797153024912</v>
+      </c>
+      <c r="L128">
+        <v>25</v>
+      </c>
+      <c r="M128">
+        <v>25</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="129" spans="10:17">
+      <c r="J129" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K129">
+        <v>0.08771929824561403</v>
+      </c>
+      <c r="L129">
+        <v>15</v>
+      </c>
+      <c r="M129">
+        <v>15</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="10:17">
+      <c r="J130" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K130">
+        <v>0.08639705882352941</v>
+      </c>
+      <c r="L130">
+        <v>47</v>
+      </c>
+      <c r="M130">
+        <v>48</v>
+      </c>
+      <c r="N130">
+        <v>0.98</v>
+      </c>
+      <c r="O130">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P130" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q130">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="131" spans="10:17">
+      <c r="J131" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K131">
+        <v>0.08</v>
+      </c>
+      <c r="L131">
+        <v>18</v>
+      </c>
+      <c r="M131">
+        <v>18</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="132" spans="10:17">
+      <c r="J132" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K132">
+        <v>0.07541322314049587</v>
+      </c>
+      <c r="L132">
+        <v>73</v>
+      </c>
+      <c r="M132">
+        <v>73</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="133" spans="10:17">
+      <c r="J133" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K133">
+        <v>0.07391304347826087</v>
+      </c>
+      <c r="L133">
+        <v>17</v>
+      </c>
+      <c r="M133">
+        <v>17</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
